--- a/CP05MOAS-GL001/Omaha_Cal_Info_CP05MOAS-GL001_00003.xlsx
+++ b/CP05MOAS-GL001/Omaha_Cal_Info_CP05MOAS-GL001_00003.xlsx
@@ -227,12 +227,6 @@
     <t>CC_depolarization_ratio</t>
   </si>
   <si>
-    <t>Glider Launch Date</t>
-  </si>
-  <si>
-    <t>Glider Launch Time</t>
-  </si>
-  <si>
     <t>Scarlett Isabella</t>
   </si>
   <si>
@@ -261,6 +255,12 @@
   </si>
   <si>
     <t>CP05MOAS-GL001</t>
+  </si>
+  <si>
+    <t>Anchor Launch Date</t>
+  </si>
+  <si>
+    <t>Anchor Launch Time</t>
   </si>
 </sst>
 </file>
@@ -1046,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,10 +1076,10 @@
         <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="2" spans="1:13" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="17">
         <v>336</v>
@@ -1118,16 +1118,16 @@
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I2" s="17">
         <v>0</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K2" s="18"/>
       <c r="L2" s="32">
@@ -1203,7 +1203,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="23">
         <v>336</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="23">
         <v>336</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="23">
         <v>336</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="23">
         <v>336</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="7" spans="1:16" s="14" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="23">
         <v>336</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="8" spans="1:16" s="14" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="23">
         <v>336</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="9" spans="1:16" s="14" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="23">
         <v>336</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="10" spans="1:16" s="14" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="23">
         <v>336</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="12" spans="1:16" s="14" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" s="23">
         <v>336</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="14" spans="1:16" s="14" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" s="23">
         <v>336</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="16" spans="1:16" s="14" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="23">
         <v>336</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="18" spans="1:11" s="14" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="23">
         <v>336</v>

--- a/CP05MOAS-GL001/Omaha_Cal_Info_CP05MOAS-GL001_00003.xlsx
+++ b/CP05MOAS-GL001/Omaha_Cal_Info_CP05MOAS-GL001_00003.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Repaired GIT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19836" windowHeight="8052" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19830" windowHeight="8055" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -75,9 +70,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>CP05MOAS-GL001</t>
-  </si>
-  <si>
     <t>Scarlett Isabella</t>
   </si>
   <si>
@@ -93,9 +85,6 @@
     <t>Calibration Cofficient Value</t>
   </si>
   <si>
-    <t>CP05MOAS-GL001-01-ADCPAM000</t>
-  </si>
-  <si>
     <t>CC_scale_factor1</t>
   </si>
   <si>
@@ -108,9 +97,6 @@
     <t>CC_scale_factor4</t>
   </si>
   <si>
-    <t>CP05MOAS-GL001-02-FLORTM000</t>
-  </si>
-  <si>
     <t>CC_scattering_angle</t>
   </si>
   <si>
@@ -123,16 +109,25 @@
     <t>CC_depolarization_ratio</t>
   </si>
   <si>
-    <t>CP05MOAS-GL001-03-CTDGVM000</t>
-  </si>
-  <si>
-    <t>CP05MOAS-GL001-04-DOSTAM000</t>
-  </si>
-  <si>
-    <t>CP05MOAS-GL001-05-PARADM000</t>
-  </si>
-  <si>
-    <t>CP05MOAS-GL001-00-ENG000000</t>
+    <t>CP05MOAS-GL336-01-ADCPAM000</t>
+  </si>
+  <si>
+    <t>CP05MOAS-GL336-02-FLORTM000</t>
+  </si>
+  <si>
+    <t>CP05MOAS-GL336-03-CTDGVM000</t>
+  </si>
+  <si>
+    <t>CP05MOAS-GL336-04-DOSTAM000</t>
+  </si>
+  <si>
+    <t>CP05MOAS-GL336-05-PARADM000</t>
+  </si>
+  <si>
+    <t>CP05MOAS-GL336-00-ENG000000</t>
+  </si>
+  <si>
+    <t>CP05MOAS-GL336</t>
   </si>
 </sst>
 </file>
@@ -698,7 +693,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -708,25 +703,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.88671875"/>
+    <col min="1" max="1" width="37.85546875"/>
     <col min="2" max="2" width="39"/>
-    <col min="3" max="3" width="14.44140625"/>
-    <col min="4" max="4" width="24.109375"/>
-    <col min="5" max="6" width="17.44140625"/>
-    <col min="7" max="8" width="18.6640625"/>
-    <col min="9" max="9" width="17.88671875"/>
-    <col min="10" max="10" width="17.109375"/>
-    <col min="11" max="11" width="51.6640625"/>
-    <col min="12" max="1025" width="8.6640625"/>
+    <col min="3" max="3" width="14.42578125"/>
+    <col min="4" max="4" width="24.140625"/>
+    <col min="5" max="6" width="17.42578125"/>
+    <col min="7" max="8" width="18.7109375"/>
+    <col min="9" max="9" width="17.85546875"/>
+    <col min="10" max="10" width="17.140625"/>
+    <col min="11" max="11" width="51.7109375"/>
+    <col min="12" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,15 +756,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4">
         <v>336</v>
       </c>
       <c r="C2" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5">
         <v>42016</v>
@@ -790,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="9"/>
@@ -806,59 +801,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5546875"/>
+    <col min="1" max="1" width="34.5703125"/>
     <col min="2" max="2" width="25"/>
-    <col min="3" max="3" width="26.109375"/>
-    <col min="4" max="4" width="26.88671875"/>
-    <col min="5" max="6" width="28.88671875"/>
-    <col min="7" max="7" width="11.44140625"/>
-    <col min="8" max="8" width="11.88671875"/>
-    <col min="9" max="9" width="14.44140625"/>
-    <col min="10" max="10" width="13.44140625"/>
-    <col min="11" max="1025" width="8.6640625"/>
+    <col min="3" max="3" width="26.140625"/>
+    <col min="4" max="4" width="26.85546875"/>
+    <col min="5" max="6" width="28.85546875"/>
+    <col min="7" max="7" width="11.42578125"/>
+    <col min="8" max="8" width="11.85546875"/>
+    <col min="9" max="9" width="14.42578125"/>
+    <col min="10" max="10" width="13.42578125"/>
+    <col min="11" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B2" s="14">
         <v>336</v>
       </c>
       <c r="C2" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="15">
         <v>643106</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="23">
         <v>0.61</v>
@@ -874,21 +869,21 @@
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B3" s="14">
         <v>336</v>
       </c>
       <c r="C3" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="15">
         <v>643106</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3" s="23">
         <v>0.61</v>
@@ -904,21 +899,21 @@
       <c r="O3" s="17"/>
       <c r="P3" s="17"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B4" s="14">
         <v>336</v>
       </c>
       <c r="C4" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="15">
         <v>643106</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="23">
         <v>0.61</v>
@@ -934,21 +929,21 @@
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B5" s="14">
         <v>336</v>
       </c>
       <c r="C5" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="15">
         <v>643106</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="23">
         <v>0.61</v>
@@ -964,7 +959,7 @@
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -982,21 +977,21 @@
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
     </row>
-    <row r="7" spans="1:16" s="21" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="14">
         <v>336</v>
       </c>
       <c r="C7" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="15">
         <v>2858</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F7" s="27">
         <v>124</v>
@@ -1007,21 +1002,21 @@
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:16" s="21" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" s="14">
         <v>336</v>
       </c>
       <c r="C8" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="15">
         <v>2858</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F8" s="25">
         <v>700</v>
@@ -1032,21 +1027,21 @@
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="1:16" s="21" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="14">
         <v>336</v>
       </c>
       <c r="C9" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="15">
         <v>2858</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F9" s="27">
         <v>1.0760000000000001</v>
@@ -1057,21 +1052,21 @@
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:16" s="21" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" s="14">
         <v>336</v>
       </c>
       <c r="C10" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="15">
         <v>2858</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F10" s="25">
         <v>3.9E-2</v>
@@ -1082,7 +1077,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -1095,15 +1090,15 @@
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="14">
         <v>336</v>
       </c>
       <c r="C12" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" s="15">
         <v>9030</v>
@@ -1116,7 +1111,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -1129,15 +1124,15 @@
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="14">
         <v>336</v>
       </c>
       <c r="C14" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" s="15">
         <v>117</v>
@@ -1150,7 +1145,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -1163,15 +1158,15 @@
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="14">
         <v>336</v>
       </c>
       <c r="C16" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" s="15">
         <v>50152</v>
@@ -1184,7 +1179,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -1197,15 +1192,15 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="14">
         <v>336</v>
       </c>
       <c r="C18" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" s="15">
         <v>336</v>
